--- a/Proyectos Evaluados/Quelentaro/Antecedentes PF - Quelentaro_V3.xlsx
+++ b/Proyectos Evaluados/Quelentaro/Antecedentes PF - Quelentaro_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Quelentaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377FBE6D-003A-42B4-86B7-AA3DF203F530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D39E5-A13B-40C9-BFDA-36846680692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17940" yWindow="2580" windowWidth="15660" windowHeight="11385" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Antecedentes PF" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Rapel</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (4 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (5 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (6 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (7 hrs)</t>
   </si>
 </sst>
 </file>
@@ -441,6 +453,9 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,9 +481,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25429B-4721-41C5-85C0-9A506688E06E}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,12 +837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -847,7 +859,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -861,7 +873,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -873,7 +885,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -885,7 +897,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +909,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -911,7 +923,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -923,7 +935,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -949,7 +961,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -963,7 +975,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -975,7 +987,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -987,7 +999,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1011,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1022,7 +1034,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1056,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1078,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1100,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1122,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1120,7 +1132,7 @@
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="14">
         <v>5</v>
       </c>
       <c r="G20" s="6">
@@ -1132,7 +1144,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1142,7 +1154,7 @@
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="14">
         <v>4</v>
       </c>
       <c r="G21" s="6">
@@ -1154,7 +1166,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1178,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1180,7 +1192,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1205,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1224,8 +1236,8 @@
   </sheetPr>
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,31 +1278,69 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>19.61</v>
+      </c>
+      <c r="F4" s="12">
+        <v>7.7</v>
+      </c>
+      <c r="G4" s="12">
+        <v>62.7</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>11.49</v>
+      </c>
+      <c r="F6" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
@@ -1335,27 +1385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -1616,10 +1645,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBFD8A75-A51B-409D-97B5-C326EC66F4A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0470DCD4-5B8D-4047-B65B-AF6011ED44B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1636,20 +1697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0470DCD4-5B8D-4047-B65B-AF6011ED44B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBFD8A75-A51B-409D-97B5-C326EC66F4A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Quelentaro/Antecedentes PF - Quelentaro_V3.xlsx
+++ b/Proyectos Evaluados/Quelentaro/Antecedentes PF - Quelentaro_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Quelentaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D39E5-A13B-40C9-BFDA-36846680692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626C21AC-867E-4681-A35F-E43937EB7A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>BESS 150 MW, 600 MWh (7 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (3 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (9 hrs)</t>
+  </si>
+  <si>
+    <t>BESS 150 MW, 600 MWh (8 hrs)</t>
+  </si>
+  <si>
+    <t>No hay costos para Bat. 9 hrs (PELP BAJO)</t>
   </si>
 </sst>
 </file>
@@ -289,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -407,12 +419,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAFABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAFABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +531,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -821,7 +879,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,8 +1294,8 @@
   </sheetPr>
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,12 +1328,24 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>14.79</v>
+      </c>
+      <c r="F3" s="10">
+        <v>7.85</v>
+      </c>
+      <c r="G3" s="10">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -1338,30 +1408,56 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="11">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>7.51E-2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6.26</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>57.3</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>-0.73</v>
+      </c>
+      <c r="F8" s="12">
+        <v>12.4</v>
+      </c>
+      <c r="G8" s="12">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -1380,11 +1476,35 @@
       <c r="G11" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -1645,28 +1765,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBFD8A75-A51B-409D-97B5-C326EC66F4A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093D7E2A-C3A1-4279-BFA6-CBBA92CAFFBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0470DCD4-5B8D-4047-B65B-AF6011ED44B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1683,23 +1801,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{093D7E2A-C3A1-4279-BFA6-CBBA92CAFFBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBFD8A75-A51B-409D-97B5-C326EC66F4A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>